--- a/Computational-books&papers/private/old roster/803.xlsx
+++ b/Computational-books&papers/private/old roster/803.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/Rosters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBDFD2C-8870-43B9-B61C-5C2B8E6496DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CD38D1-31AB-4204-B622-403A9ACF837E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18150" windowHeight="13380"/>
+    <workbookView xWindow="2340" yWindow="945" windowWidth="14250" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="ps (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="ps (19)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E112DF0B-F381-41F6-BDB3-5D761EA41E25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F2CEA2-F923-45E6-B1A7-425D416AA44D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D276403-852F-4B08-BF31-D27BF829F740}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F053A75A-C6DD-4B1B-88D1-229AFA240A31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1713,17 +1713,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362B48FD-789C-40A5-B1F0-9A30C0C2DB0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AAF591-58D1-4976-8942-F59378B28642}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>